--- a/biology/Biochimie/Microélément/Microélément.xlsx
+++ b/biology/Biochimie/Microélément/Microélément.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micro%C3%A9l%C3%A9ment</t>
+          <t>Microélément</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un microélément ou élément trace est un élément chimique nutritif de nature minérale dont les organismes ont besoin en faible quantité pour se développer.
-On distingue ainsi selon leur concentration : les macroéléments (entre 30 et 1 300 g pour un corps humain de 70 kg, apports journaliers &gt; 100 mg/j), les microéléments (entre 0.1 et 10 g pour un corps humain de 70 kg, apports journaliers de l'ordre de 1 à 10 mg/j) et les oligoélément ou éléments ultratraces (&lt; 1 mg/kg)[1],[2].
+On distingue ainsi selon leur concentration : les macroéléments (entre 30 et 1 300 g pour un corps humain de 70 kg, apports journaliers &gt; 100 mg/j), les microéléments (entre 0.1 et 10 g pour un corps humain de 70 kg, apports journaliers de l'ordre de 1 à 10 mg/j) et les oligoélément ou éléments ultratraces (&lt; 1 mg/kg),.
 Ils jouent un rôle de catalyseur ou de régulateur, par exemple d’activateurs enzymatiques. Certains macroéléments, comme le calcium ou le magnésium, jouent – en plus de leur rôle structural – un rôle régulateur.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micro%C3%A9l%C3%A9ment</t>
+          <t>Microélément</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liste des microéléments du corps humain</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Manganèse
 Fer
